--- a/작업 일지/2020년달력.xlsx
+++ b/작업 일지/2020년달력.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol57\Documents\GitHub\FURY\작업 일지\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDD614-52D0-48F1-977E-76E06B58B46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="12" r:id="rId1"/>
@@ -19,13 +25,14 @@
     <sheet name="10월" sheetId="11" r:id="rId10"/>
     <sheet name="11월" sheetId="19" r:id="rId11"/>
     <sheet name="12월" sheetId="23" r:id="rId12"/>
+    <sheet name="개발 일정" sheetId="26" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>화요일</t>
   </si>
@@ -64,10 +71,6 @@
       </rPr>
       <t>신정</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 발렌타인데이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,18 +178,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14 화이트데이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020년 04월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5 식목일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020년 05월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18 5.18 민주화운동기념일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020년 06월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8 정월 대보름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 삼일절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 4.3희생자 추념일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5 어린이날</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,14 +311,57 @@
   </si>
   <si>
     <t>vr끝내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 개강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용희 교수님 면담 (요일 미정)</t>
+  </si>
+  <si>
+    <t>중간 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채영 // 1. 클라&gt;서버 : 이펙트, 아이템, 스코어 2. 서버&gt;클라 : 이펙트, 아이템, 스코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채영 // 1.클라&gt;서버 : 로컬 플레이어의 위치, 방향, 상태 2.서버&gt;클라 : 다른 플레이어의 위치/방향/상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채영 // 1. 씬 동기화 : 타이틀, 메뉴, 로비, 게임 종료 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채영 // 1. 클라이언트 미흡한 부분 보충 (미정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 보고서 제출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +474,69 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -804,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,9 +1014,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -943,9 +1029,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -957,16 +1040,16 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,11 +1062,125 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,6 +1205,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C151D99-428E-4EFA-8E19-DD9981E7CB50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8313420" cy="4779539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,7 +1299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1085,9 +1331,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,6 +1383,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1294,23 +1576,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="79.125" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="79.09765625" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" customHeight="1">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -1318,11 +1600,11 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
-      <c r="H1" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="H1" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1344,11 +1626,11 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="H2" s="50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>29</v>
       </c>
@@ -1367,20 +1649,20 @@
       <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="42">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="99" customHeight="1">
+    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>5</v>
       </c>
@@ -1403,24 +1685,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="99" customHeight="1">
+    <row r="6" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>12</v>
       </c>
@@ -1443,22 +1725,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="99" customHeight="1">
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
-      <c r="B8" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>19</v>
       </c>
@@ -1475,29 +1757,29 @@
         <v>23</v>
       </c>
       <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="41" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="99" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="8">
         <v>28</v>
@@ -1515,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="99" customHeight="1">
+    <row r="12" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1524,7 +1806,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1533,7 +1815,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1542,7 +1824,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1551,7 +1833,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1560,7 +1842,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1569,7 +1851,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1589,23 +1871,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -1614,7 +1896,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1637,30 +1919,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>27</v>
       </c>
       <c r="B3" s="21">
         <v>28</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>29</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>30</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1669,7 +1951,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1686,13 +1968,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
+    <row r="6" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1701,7 +1983,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>11</v>
       </c>
@@ -1724,7 +2006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
+    <row r="8" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1733,7 +2015,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>18</v>
       </c>
@@ -1756,7 +2038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
+    <row r="10" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1765,7 +2047,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <v>25</v>
       </c>
@@ -1788,7 +2070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" customHeight="1">
+    <row r="12" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1797,7 +2079,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1806,7 +2088,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1815,7 +2097,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1824,7 +2106,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1833,7 +2115,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1842,7 +2124,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1862,23 +2144,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -1887,7 +2169,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1910,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1933,7 +2215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1942,7 +2224,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>8</v>
       </c>
@@ -1965,7 +2247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
+    <row r="6" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1974,7 +2256,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>15</v>
       </c>
@@ -1993,20 +2275,20 @@
       <c r="F7" s="22">
         <v>20</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="42">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
+    <row r="8" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>22</v>
       </c>
@@ -2029,7 +2311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
+    <row r="10" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2038,7 +2320,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <v>29</v>
       </c>
@@ -2061,16 +2343,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" customHeight="1">
+    <row r="12" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="94" t="s">
+        <v>60</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2079,7 +2363,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2088,7 +2372,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2097,7 +2381,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2106,7 +2390,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2115,7 +2399,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2135,23 +2419,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2160,7 +2444,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>29</v>
       </c>
@@ -2206,16 +2490,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -2238,16 +2522,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
+    <row r="6" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>13</v>
       </c>
@@ -2270,7 +2554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
+    <row r="8" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2279,7 +2563,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>20</v>
       </c>
@@ -2296,13 +2580,13 @@
         <v>24</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" s="39">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
+    <row r="10" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2311,7 +2595,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <v>27</v>
       </c>
@@ -2334,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" customHeight="1">
+    <row r="12" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -2343,7 +2627,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2352,7 +2636,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2361,7 +2645,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2370,7 +2654,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2379,7 +2663,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2388,7 +2672,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2407,24 +2691,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE0F460-9577-492A-997C-A6024B2E3A3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="100.796875" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2433,7 +2733,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2456,167 +2756,167 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="20">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="59">
         <v>26</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="60">
         <v>27</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="60">
         <v>28</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="60">
         <v>29</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="60">
         <v>30</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="60">
         <v>31</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="62">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="18">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="67">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="67">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="67">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="67">
         <v>6</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="67">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="18">
+      <c r="G5" s="62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="66">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="67">
         <v>10</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="67">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="67">
         <v>12</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="67">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="67">
+        <v>14</v>
+      </c>
+      <c r="G7" s="62">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="18">
+    <row r="8" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66">
         <v>16</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="67">
         <v>17</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="67">
         <v>18</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="67">
         <v>19</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="67">
         <v>20</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="67">
         <v>21</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="62">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="17">
+    <row r="10" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="66">
         <v>23</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="61">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="67">
         <v>25</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="67">
         <v>26</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="61">
         <v>27</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="61">
         <v>28</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="77">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
+    <row r="12" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2625,7 +2925,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2634,7 +2934,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2643,7 +2943,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2652,7 +2952,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2661,7 +2961,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2681,23 +2981,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="115.296875" customWidth="1"/>
+    <col min="9" max="9" width="56.69921875" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2706,7 +3007,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2728,186 +3029,214 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="H2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="67">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="67">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="67">
         <v>4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="67">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="67">
         <v>6</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="62">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="18">
+    <row r="4" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="66">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="67">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="67">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="67">
         <v>11</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="67">
         <v>12</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="67">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="62">
+        <v>14</v>
+      </c>
+      <c r="H5" s="95"/>
+    </row>
+    <row r="6" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="66">
+        <v>15</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="67">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="18">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="D7" s="67">
         <v>18</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="67">
         <v>19</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="67">
         <v>20</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="62">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="18">
+      <c r="H7" s="95"/>
+    </row>
+    <row r="8" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66">
         <v>22</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="67">
         <v>23</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="67">
         <v>24</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="67">
         <v>25</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="67">
         <v>26</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="61">
         <v>27</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="77">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="27">
+      <c r="H9" s="95"/>
+    </row>
+    <row r="10" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="70">
         <v>29</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="67">
         <v>30</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="67">
         <v>31</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="60">
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="60">
         <v>2</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="60">
         <v>3</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="80">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="84"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="93"/>
+    </row>
+    <row r="14" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="93"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2916,7 +3245,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2925,7 +3254,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2934,7 +3263,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2956,23 +3285,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="134.796875" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2981,7 +3310,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3003,168 +3332,171 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="20">
+      <c r="H2" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="59">
         <v>29</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="59">
         <v>30</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="59">
         <v>31</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="61">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="61">
         <v>2</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="43">
+      <c r="F3" s="61">
+        <v>3</v>
+      </c>
+      <c r="G3" s="77">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="66">
+        <v>5</v>
+      </c>
+      <c r="B5" s="61">
+        <v>6</v>
+      </c>
+      <c r="C5" s="67">
+        <v>7</v>
+      </c>
+      <c r="D5" s="61">
+        <v>8</v>
+      </c>
+      <c r="E5" s="61">
+        <v>9</v>
+      </c>
+      <c r="F5" s="61">
+        <v>10</v>
+      </c>
+      <c r="G5" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="66">
+        <v>12</v>
+      </c>
+      <c r="B7" s="67">
+        <v>13</v>
+      </c>
+      <c r="C7" s="67">
+        <v>14</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="61">
+        <v>16</v>
+      </c>
+      <c r="F7" s="61">
+        <v>17</v>
+      </c>
+      <c r="G7" s="77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66">
         <v>19</v>
       </c>
-      <c r="B5" s="22">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8">
-        <v>7</v>
-      </c>
-      <c r="D5" s="42">
-        <v>8</v>
-      </c>
-      <c r="E5" s="42">
-        <v>9</v>
-      </c>
-      <c r="F5" s="42">
-        <v>10</v>
-      </c>
-      <c r="G5" s="43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="18">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8">
-        <v>14</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="42">
-        <v>16</v>
-      </c>
-      <c r="F7" s="42">
-        <v>17</v>
-      </c>
-      <c r="G7" s="43">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="18">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="B9" s="67">
         <v>20</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="67">
         <v>21</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="61">
         <v>22</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="61">
         <v>23</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="61">
         <v>24</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="77">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="17">
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="66">
         <v>26</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="61">
         <v>27</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="67">
         <v>28</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="67">
         <v>29</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="60">
         <v>1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="80">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
+    <row r="12" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3173,7 +3505,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3182,7 +3514,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3191,7 +3523,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3200,7 +3532,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3209,7 +3541,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3229,23 +3561,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="125.296875" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -3254,7 +3586,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3276,168 +3608,173 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="20">
+      <c r="H2" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="59">
         <v>26</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="60">
         <v>27</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="60">
         <v>28</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="60">
         <v>29</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="60">
         <v>30</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="66">
+        <v>3</v>
+      </c>
+      <c r="B5" s="67">
+        <v>4</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="67">
+        <v>6</v>
+      </c>
+      <c r="E5" s="67">
+        <v>7</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="62">
         <v>9</v>
       </c>
-      <c r="G3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="66">
+        <v>10</v>
+      </c>
+      <c r="B7" s="67">
+        <v>11</v>
+      </c>
+      <c r="C7" s="67">
+        <v>12</v>
+      </c>
+      <c r="D7" s="61">
+        <v>13</v>
+      </c>
+      <c r="E7" s="67">
+        <v>14</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="63"/>
+      <c r="B8" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66">
+        <v>17</v>
+      </c>
+      <c r="B9" s="67">
+        <v>18</v>
+      </c>
+      <c r="C9" s="67">
+        <v>19</v>
+      </c>
+      <c r="D9" s="67">
+        <v>20</v>
+      </c>
+      <c r="E9" s="67">
         <v>21</v>
       </c>
-      <c r="G5" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="18">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8">
-        <v>12</v>
-      </c>
-      <c r="D7" s="22">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="F9" s="67">
         <v>22</v>
       </c>
-      <c r="G7" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="18">
-        <v>17</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="G9" s="62">
         <v>23</v>
       </c>
-      <c r="C9" s="8">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8">
-        <v>22</v>
-      </c>
-      <c r="G9" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="27">
+    </row>
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="70">
         <v>24</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="61">
         <v>25</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="61">
         <v>26</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="61">
         <v>27</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="71">
         <v>28</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="67">
         <v>29</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="62">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="1:7">
+    <row r="12" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="27">
         <v>31</v>
       </c>
@@ -3448,7 +3785,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1">
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -3457,7 +3794,7 @@
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3466,7 +3803,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3475,7 +3812,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3484,7 +3821,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3504,23 +3841,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="107.8984375" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -3529,7 +3866,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3551,8 +3888,11 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="H2" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23">
         <v>31</v>
       </c>
@@ -3571,11 +3911,11 @@
       <c r="F3" s="22">
         <v>5</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
+      <c r="G3" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3584,7 +3924,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27">
         <v>7</v>
       </c>
@@ -3607,7 +3947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
+    <row r="6" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3616,7 +3956,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27">
         <v>14</v>
       </c>
@@ -3639,7 +3979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -3648,7 +3988,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27">
         <v>21</v>
       </c>
@@ -3671,7 +4011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3680,7 +4020,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27">
         <v>28</v>
       </c>
@@ -3703,17 +4043,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+    <row r="12" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="31"/>
       <c r="F12" s="30"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="52"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -3721,8 +4061,8 @@
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="15"/>
@@ -3730,7 +4070,7 @@
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3739,7 +4079,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3748,7 +4088,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3757,7 +4097,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3778,23 +4118,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="150.8984375" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -3803,7 +4143,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3825,8 +4165,11 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="H2" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>28</v>
       </c>
@@ -3836,29 +4179,29 @@
       <c r="C3" s="21">
         <v>30</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>2</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>3</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="42">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
+    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>5</v>
       </c>
@@ -3868,29 +4211,29 @@
       <c r="C5" s="8">
         <v>7</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <v>8</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <v>9</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>10</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="42">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
+    <row r="6" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>12</v>
       </c>
@@ -3900,29 +4243,29 @@
       <c r="C7" s="8">
         <v>14</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>15</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>16</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="43">
+      <c r="F7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="42">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>19</v>
       </c>
@@ -3932,29 +4275,29 @@
       <c r="C9" s="8">
         <v>21</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>22</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>23</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>24</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="42">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <v>26</v>
       </c>
@@ -3977,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" customHeight="1">
+    <row r="12" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3986,7 +4329,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3995,7 +4338,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4004,7 +4347,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4013,7 +4356,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4022,7 +4365,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4031,7 +4374,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4051,23 +4394,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="106.8984375" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -4076,7 +4419,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4098,8 +4441,11 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="H2" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>26</v>
       </c>
@@ -4122,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
+    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4131,7 +4477,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -4154,7 +4500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
+    <row r="6" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -4163,7 +4509,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>9</v>
       </c>
@@ -4182,20 +4528,22 @@
       <c r="F7" s="8">
         <v>14</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
+      <c r="G7" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="56" t="s">
+        <v>59</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>16</v>
       </c>
@@ -4218,7 +4566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4227,7 +4575,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27">
         <v>23</v>
       </c>
@@ -4250,16 +4598,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="48.75" customHeight="1">
+    <row r="12" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="31"/>
       <c r="F12" s="30"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="27">
         <v>30</v>
       </c>
@@ -4272,16 +4620,16 @@
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1">
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="34"/>
       <c r="D14" s="15"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4290,7 +4638,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4299,7 +4647,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4308,7 +4656,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4328,23 +4676,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="128.19921875" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -4353,7 +4701,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4375,8 +4723,11 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="H2" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>30</v>
       </c>
@@ -4399,7 +4750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1">
+    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4408,7 +4759,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -4431,7 +4782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="99" customHeight="1">
+    <row r="6" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -4440,7 +4791,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>13</v>
       </c>
@@ -4463,7 +4814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="99" customHeight="1">
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -4472,7 +4823,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>20</v>
       </c>
@@ -4495,7 +4846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" customHeight="1">
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4504,7 +4855,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27">
         <v>27</v>
       </c>
@@ -4515,7 +4866,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="24">
         <v>1</v>
@@ -4527,34 +4878,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+    <row r="12" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="52"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="31"/>
       <c r="F12" s="30"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="54"/>
-      <c r="B13" s="56"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="57"/>
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="34"/>
       <c r="D14" s="15"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4563,7 +4914,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4572,7 +4923,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4581,7 +4932,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
